--- a/exercises/documento28/StrumentoRisolutore_1.xlsx
+++ b/exercises/documento28/StrumentoRisolutore_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\iDocet\Corso_Excel\Excel_Base_Avanzato\eserciziario_excel2016\Documenti_di alvoro_excel2016\documento28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\excel\exercises\documento28\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284EDE06-210D-406C-BCEE-CBE5AE8C9AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80946856-6231-420B-907D-842BB03494FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9615" yWindow="1995" windowWidth="18915" windowHeight="11670" activeTab="1" xr2:uid="{A66F666B-FA60-4E41-85EC-A6BE268B990E}"/>
+    <workbookView xWindow="5340" yWindow="1005" windowWidth="18915" windowHeight="12060" xr2:uid="{A66F666B-FA60-4E41-85EC-A6BE268B990E}"/>
   </bookViews>
   <sheets>
     <sheet name="Answer Report 1" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet1!$C$2:$C$16</definedName>
-    <definedName name="solver_cvg" localSheetId="1" hidden="1">"""""""""""""""""""""""""""""""0.0001"""""""""""""""""""""""""""""""</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0.0001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
@@ -30,19 +30,19 @@
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">Sheet1!$C$2:$C$16</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="1" hidden="1">"""""""""""""""""""""""""""""""0.075"""""""""""""""""""""""""""""""</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0.075"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet1!$E$2</definedName>
-    <definedName name="solver_pre" localSheetId="1" hidden="1">"""""""""""""""""""""""""""""""0.000001"""""""""""""""""""""""""""""""</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0.000001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">700</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">800</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">"integer"</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">150</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
@@ -53,7 +53,7 @@
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">6000</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">7000</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -727,7 +727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2D6224-337C-47EA-B4CC-B7694D6214B5}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1777,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7231DF67-B34D-4248-AC30-10412D281E03}">
   <dimension ref="C1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,11 +1795,11 @@
     </row>
     <row r="2" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C2">
-        <v>586</v>
+        <v>741</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(C2:C16)</f>
-        <v>6000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.25">
@@ -1807,32 +1809,32 @@
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4">
-        <v>507</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6">
-        <v>401</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8">
-        <v>472</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9">
-        <v>304</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
@@ -1842,12 +1844,12 @@
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11">
-        <v>292</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12">
-        <v>694</v>
+        <v>800</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
@@ -1862,12 +1864,12 @@
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15">
-        <v>590</v>
+        <v>749</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
